--- a/Database.xlsx
+++ b/Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Student</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>photo</t>
+  </si>
+  <si>
+    <t>purav</t>
   </si>
 </sst>
 </file>
@@ -582,6 +585,9 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
